--- a/documentation/draft/ci-environment/build-deploy-checklist.xlsx
+++ b/documentation/draft/ci-environment/build-deploy-checklist.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
-    <sheet name="Check List" sheetId="1" r:id="rId1"/>
+    <sheet name="Check Point" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -20,10 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Check List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dependency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,6 +49,10 @@
   </si>
   <si>
     <t>Multi-processing, Race Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,39 +450,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
